--- a/arquivos/Book1.xlsx
+++ b/arquivos/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\API-Arte-arena\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D0C51C1-BF16-4910-B67C-CAAA6B1397C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E974C98A-EBFC-4797-BC58-2FB7F6A2964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDF8E6AE-A5F1-443E-95A0-1B69D87855CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDF8E6AE-A5F1-443E-95A0-1B69D87855CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="55">
   <si>
     <t>BANDEIRA</t>
   </si>
@@ -87,9 +78,6 @@
     <t>DEIXAR APENAS OS NÚMEROS !</t>
   </si>
   <si>
-    <t>SHORTS</t>
-  </si>
-  <si>
     <t>Leo ira fazer o shorts - tem 1 camiseta 1 doll a mais na lista do clt</t>
   </si>
   <si>
@@ -150,15 +138,6 @@
     <t>Muito Difícil</t>
   </si>
   <si>
-    <t>CANECA ALUMÍNIO</t>
-  </si>
-  <si>
-    <t>TIRANTE</t>
-  </si>
-  <si>
-    <t>faixa</t>
-  </si>
-  <si>
     <t>BANDEIRA DE MESA</t>
   </si>
   <si>
@@ -180,9 +159,6 @@
     <t>medida_linear</t>
   </si>
   <si>
-    <t>observacao</t>
-  </si>
-  <si>
     <t>dificuldade</t>
   </si>
   <si>
@@ -192,20 +168,35 @@
     <t>designer</t>
   </si>
   <si>
-    <t>prazo</t>
-  </si>
-  <si>
     <t>checagem_final</t>
   </si>
   <si>
     <t>tiny</t>
+  </si>
+  <si>
+    <t>SHORTS,CAMISETA</t>
+  </si>
+  <si>
+    <t>CANECA ALUMÍNIO, TIRANTE</t>
+  </si>
+  <si>
+    <t>BANDEIRA, faixa</t>
+  </si>
+  <si>
+    <t>BANDEIRA, TIRANTE</t>
+  </si>
+  <si>
+    <t>observacoes</t>
+  </si>
+  <si>
+    <t>tipo_pedido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +336,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF1FA8C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -483,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -640,6 +637,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,7 +659,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -956,53 +956,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35597CEB-3934-4434-82BF-B4E9A055D6A6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>13233</v>
       </c>
@@ -1013,29 +1013,28 @@
         <v>0</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3">
+      <c r="E2" s="3">
         <v>2.27</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="J2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>13242</v>
       </c>
@@ -1046,29 +1045,28 @@
         <v>0</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
+      <c r="E3" s="8">
         <v>1.49</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>13244</v>
       </c>
@@ -1079,31 +1077,30 @@
         <v>0</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16">
+      <c r="E4" s="16">
         <v>7.33</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="15"/>
-    </row>
-    <row r="5" spans="1:13" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="J4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>13309</v>
       </c>
@@ -1114,27 +1111,26 @@
         <v>0</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15">
+      <c r="E5" s="15">
         <v>1.62</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>4</v>
-      </c>
+      <c r="J5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="15"/>
       <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-    </row>
-    <row r="6" spans="1:13" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" ht="39" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>13388</v>
       </c>
@@ -1146,22 +1142,21 @@
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="18" t="s">
+      <c r="G6" s="15"/>
+      <c r="H6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="I6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="15"/>
       <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-    </row>
-    <row r="7" spans="1:13" ht="31.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>13369</v>
       </c>
@@ -1172,29 +1167,28 @@
         <v>0</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15">
+      <c r="E7" s="15">
         <v>6.45</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="J7" s="23" t="s">
         <v>10</v>
       </c>
+      <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:13" ht="31.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>13307</v>
       </c>
@@ -1205,27 +1199,26 @@
         <v>0</v>
       </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15">
+      <c r="E8" s="15">
         <v>6.34</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="22" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="I8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="15"/>
       <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-    </row>
-    <row r="9" spans="1:13" ht="31.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>13335</v>
       </c>
@@ -1236,27 +1229,26 @@
         <v>0</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15">
+      <c r="E9" s="15">
         <v>1.56</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="22" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="I9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13" ht="31.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>13337</v>
       </c>
@@ -1267,27 +1259,26 @@
         <v>0</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15">
+      <c r="E10" s="15">
         <v>2.06</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="18" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="I10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>13113</v>
       </c>
@@ -1299,28 +1290,27 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="27" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="H11" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="29">
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="29">
         <v>45128</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13047</v>
       </c>
@@ -1332,30 +1322,29 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="G12" s="27" t="s">
         <v>13</v>
       </c>
+      <c r="H12" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="I12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="29">
+      <c r="J12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="29">
         <v>45137</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13117</v>
       </c>
@@ -1363,36 +1352,33 @@
         <v>45127</v>
       </c>
       <c r="C13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="27" t="s">
+      <c r="G13" s="27" t="s">
         <v>13</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="I13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M13" s="29">
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="29">
         <v>45137</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="120" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13211</v>
       </c>
@@ -1404,28 +1390,27 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="31" t="s">
+      <c r="F14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="I14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="8"/>
-    </row>
-    <row r="15" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="114" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13196</v>
       </c>
@@ -1437,30 +1422,29 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="27" t="s">
+      <c r="F15" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="29">
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="29">
         <v>45144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13286</v>
       </c>
@@ -1471,31 +1455,30 @@
         <v>15</v>
       </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="27" t="s">
+      <c r="E16" s="34"/>
+      <c r="F16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="20" t="s">
+      <c r="H16" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="36">
+      <c r="J16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="36">
         <v>45146</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="114" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13070</v>
       </c>
@@ -1503,30 +1486,29 @@
         <v>45121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" s="27" t="s">
+      <c r="F17" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="8"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+      <c r="H17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13190</v>
       </c>
@@ -1538,26 +1520,25 @@
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="F18" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="8"/>
-    </row>
-    <row r="19" spans="1:13" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="H18" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>13300</v>
       </c>
@@ -1569,30 +1550,29 @@
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="27" t="s">
+      <c r="F19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="20" t="s">
+      <c r="H19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="36">
+      <c r="J19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="36">
         <v>45148</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>13376</v>
       </c>
@@ -1600,28 +1580,27 @@
         <v>45146</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="40" t="s">
+      <c r="F20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="I20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="J20" s="23" t="s">
         <v>10</v>
       </c>
+      <c r="K20" s="15"/>
       <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13" ht="66.599999999999994" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" ht="64.5" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>13325</v>
       </c>
@@ -1633,26 +1612,25 @@
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="22" t="s">
+      <c r="F21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="24" t="s">
+      <c r="H21" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>13258</v>
       </c>
@@ -1665,19 +1643,18 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="22" t="s">
+      <c r="G22" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="15"/>
       <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>13260</v>
       </c>
@@ -1690,19 +1667,18 @@
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="22" t="s">
+      <c r="G23" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="15"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="15"/>
       <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>13253</v>
       </c>
@@ -1715,19 +1691,18 @@
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="22" t="s">
+      <c r="G24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="15"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="15"/>
       <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>13270</v>
       </c>
@@ -1740,19 +1715,18 @@
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="22" t="s">
+      <c r="G25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="15"/>
       <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>13277</v>
       </c>
@@ -1765,19 +1739,18 @@
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="22" t="s">
+      <c r="G26" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="15"/>
       <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-    </row>
-    <row r="27" spans="1:13" ht="21.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>13281</v>
       </c>
@@ -1785,24 +1758,23 @@
         <v>45139</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="22" t="s">
+      <c r="G27" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="15"/>
       <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>13285</v>
       </c>
@@ -1815,19 +1787,18 @@
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="22" t="s">
+      <c r="G28" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="15"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="15"/>
       <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>13287</v>
       </c>
@@ -1840,19 +1811,18 @@
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="22" t="s">
+      <c r="G29" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="15"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="15"/>
       <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>13248</v>
       </c>
@@ -1865,19 +1835,18 @@
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="22" t="s">
+      <c r="G30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="15"/>
       <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>13294</v>
       </c>
@@ -1890,19 +1859,18 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="15"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K31" s="15"/>
       <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>13254</v>
       </c>
@@ -1915,19 +1883,18 @@
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="22" t="s">
+      <c r="G32" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="15"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>13200</v>
       </c>
@@ -1940,19 +1907,18 @@
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="15"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="15"/>
       <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>13257</v>
       </c>
@@ -1965,19 +1931,18 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="22" t="s">
+      <c r="G34" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="15"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>13306</v>
       </c>
@@ -1989,20 +1954,19 @@
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="22" t="s">
+      <c r="F35" s="17"/>
+      <c r="G35" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-    </row>
-    <row r="36" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>13331</v>
       </c>
@@ -2014,20 +1978,19 @@
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="18" t="s">
+      <c r="F36" s="44"/>
+      <c r="G36" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I36" s="15"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>13366</v>
       </c>
@@ -2039,20 +2002,19 @@
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="22" t="s">
+      <c r="F37" s="34"/>
+      <c r="G37" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K37" s="15"/>
       <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>13312</v>
       </c>
@@ -2065,19 +2027,18 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="22" t="s">
+      <c r="G38" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="15"/>
       <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-    </row>
-    <row r="39" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>13284</v>
       </c>
@@ -2089,20 +2050,19 @@
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="22" t="s">
+      <c r="F39" s="17"/>
+      <c r="G39" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I39" s="15"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="15"/>
       <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>13303</v>
       </c>
@@ -2114,20 +2074,19 @@
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="22" t="s">
+      <c r="F40" s="17"/>
+      <c r="G40" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I40" s="15"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" s="15"/>
       <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>13305</v>
       </c>
@@ -2139,20 +2098,19 @@
       </c>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="22" t="s">
+      <c r="F41" s="17"/>
+      <c r="G41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I41" s="15"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="15"/>
       <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>13319</v>
       </c>
@@ -2164,20 +2122,19 @@
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="22" t="s">
+      <c r="F42" s="17"/>
+      <c r="G42" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="15"/>
       <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>13333</v>
       </c>
@@ -2190,19 +2147,18 @@
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="22" t="s">
+      <c r="G43" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="15"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="15"/>
       <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>13351</v>
       </c>
@@ -2215,19 +2171,18 @@
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="22" t="s">
+      <c r="G44" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="15"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="15"/>
       <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-    </row>
-    <row r="45" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>13327</v>
       </c>
@@ -2235,24 +2190,23 @@
         <v>45142</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="22" t="s">
+      <c r="G45" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="15"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H45" s="15"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="15"/>
       <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-    </row>
-    <row r="46" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>13344</v>
       </c>
@@ -2265,19 +2219,18 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="22" t="s">
+      <c r="G46" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="15"/>
       <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>13317</v>
       </c>
@@ -2289,20 +2242,19 @@
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="22" t="s">
+      <c r="F47" s="17"/>
+      <c r="G47" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I47" s="15"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="15"/>
       <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-    </row>
-    <row r="48" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>13222</v>
       </c>
@@ -2315,23 +2267,22 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="11"/>
-      <c r="K48" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="8"/>
-    </row>
-    <row r="49" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H48" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>13158</v>
       </c>
@@ -2343,24 +2294,23 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" s="11"/>
-      <c r="K49" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="8"/>
-    </row>
-    <row r="50" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F49" s="31"/>
+      <c r="G49" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>13159</v>
       </c>
@@ -2372,24 +2322,23 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="27" t="s">
+      <c r="F50" s="31"/>
+      <c r="G50" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="11"/>
-      <c r="K50" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M50" s="8"/>
-    </row>
-    <row r="51" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H50" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>13161</v>
       </c>
@@ -2401,24 +2350,23 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="27" t="s">
+      <c r="F51" s="31"/>
+      <c r="G51" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51" s="11"/>
-      <c r="K51" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M51" s="8"/>
-    </row>
-    <row r="52" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H51" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>13163</v>
       </c>
@@ -2430,24 +2378,23 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="8"/>
-    </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+      <c r="F52" s="31"/>
+      <c r="G52" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="8"/>
+    </row>
+    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>13166</v>
       </c>
@@ -2459,26 +2406,25 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="31" t="s">
+      <c r="F53" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H53" s="27" t="s">
+      <c r="G53" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" s="11"/>
-      <c r="K53" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M53" s="8"/>
-    </row>
-    <row r="54" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>13169</v>
       </c>
@@ -2490,24 +2436,23 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="11"/>
-      <c r="K54" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="8"/>
-    </row>
-    <row r="55" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F54" s="31"/>
+      <c r="G54" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="8"/>
+    </row>
+    <row r="55" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>13183</v>
       </c>
@@ -2519,24 +2464,23 @@
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="27" t="s">
+      <c r="F55" s="31"/>
+      <c r="G55" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I55" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M55" s="8"/>
-    </row>
-    <row r="56" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>13193</v>
       </c>
@@ -2548,24 +2492,23 @@
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" s="11"/>
-      <c r="K56" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M56" s="8"/>
-    </row>
-    <row r="57" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F56" s="31"/>
+      <c r="G56" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>13195</v>
       </c>
@@ -2577,24 +2520,23 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" s="11"/>
-      <c r="K57" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="8"/>
-    </row>
-    <row r="58" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+      <c r="F57" s="31"/>
+      <c r="G57" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>13251</v>
       </c>
@@ -2607,23 +2549,22 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="46" t="s">
+      <c r="G58" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I58" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="42"/>
-      <c r="K58" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="15"/>
-    </row>
-    <row r="59" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H58" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="42"/>
+      <c r="J58" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="15"/>
+    </row>
+    <row r="59" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>13175</v>
       </c>
@@ -2636,19 +2577,18 @@
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I59" s="15"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G59" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="15"/>
       <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-    </row>
-    <row r="60" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>13168</v>
       </c>
@@ -2656,28 +2596,27 @@
         <v>45131</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J60" s="11"/>
-      <c r="K60" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="8"/>
-    </row>
-    <row r="61" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F60" s="31"/>
+      <c r="G60" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="11"/>
+      <c r="J60" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="8"/>
+    </row>
+    <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>13022</v>
       </c>
@@ -2689,26 +2628,25 @@
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="27" t="s">
+      <c r="F61" s="31"/>
+      <c r="G61" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J61" s="11"/>
-      <c r="K61" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M61" s="29">
+      <c r="H61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I61" s="11"/>
+      <c r="J61" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L61" s="29">
         <v>45142</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="45.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>13016</v>
       </c>
@@ -2716,22 +2654,21 @@
         <v>45131</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="17" t="s">
-        <v>35</v>
-      </c>
+      <c r="F62" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="15"/>
       <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="8"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="15"/>
       <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-    </row>
-    <row r="63" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>13387</v>
       </c>
@@ -2743,18 +2680,17 @@
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="17" t="s">
+      <c r="F63" s="17" t="s">
         <v>9</v>
       </c>
+      <c r="G63" s="15"/>
       <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="8"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="15"/>
       <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-    </row>
-    <row r="64" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>13209</v>
       </c>
@@ -2766,24 +2702,23 @@
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="27" t="s">
+      <c r="F64" s="31"/>
+      <c r="G64" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J64" s="11"/>
-      <c r="K64" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M64" s="8"/>
-    </row>
-    <row r="65" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H64" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>13201</v>
       </c>
@@ -2795,24 +2730,23 @@
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J65" s="11"/>
-      <c r="K65" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M65" s="8"/>
-    </row>
-    <row r="66" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F65" s="31"/>
+      <c r="G65" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" s="11"/>
+      <c r="J65" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L65" s="8"/>
+    </row>
+    <row r="66" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>13204</v>
       </c>
@@ -2824,24 +2758,23 @@
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="11"/>
-      <c r="K66" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="8"/>
-    </row>
-    <row r="67" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F66" s="31"/>
+      <c r="G66" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="11"/>
+      <c r="J66" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="8"/>
+    </row>
+    <row r="67" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>13207</v>
       </c>
@@ -2853,24 +2786,23 @@
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="27" t="s">
+      <c r="F67" s="31"/>
+      <c r="G67" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I67" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M67" s="8"/>
-    </row>
-    <row r="68" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H67" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I67" s="11"/>
+      <c r="J67" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L67" s="8"/>
+    </row>
+    <row r="68" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>13213</v>
       </c>
@@ -2882,24 +2814,23 @@
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J68" s="11"/>
-      <c r="K68" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M68" s="8"/>
-    </row>
-    <row r="69" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F68" s="31"/>
+      <c r="G68" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L68" s="8"/>
+    </row>
+    <row r="69" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>13280</v>
       </c>
@@ -2912,19 +2843,18 @@
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I69" s="15"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G69" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" s="15"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" s="15"/>
       <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-    </row>
-    <row r="70" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>13295</v>
       </c>
@@ -2936,20 +2866,19 @@
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="46" t="s">
+      <c r="F70" s="17"/>
+      <c r="G70" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="15"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" s="15"/>
       <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-    </row>
-    <row r="71" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>13187</v>
       </c>
@@ -2957,28 +2886,27 @@
         <v>45132</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M71" s="8"/>
-    </row>
-    <row r="72" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F71" s="31"/>
+      <c r="G71" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="11"/>
+      <c r="J71" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L71" s="8"/>
+    </row>
+    <row r="72" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>13261</v>
       </c>
@@ -2986,24 +2914,23 @@
         <v>45132</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I72" s="15"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G72" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="15"/>
       <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-    </row>
-    <row r="73" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>13210</v>
       </c>
@@ -3011,28 +2938,27 @@
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73" s="11"/>
-      <c r="K73" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M73" s="8"/>
-    </row>
-    <row r="74" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F73" s="31"/>
+      <c r="G73" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I73" s="11"/>
+      <c r="J73" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L73" s="8"/>
+    </row>
+    <row r="74" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>13189</v>
       </c>
@@ -3044,24 +2970,23 @@
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J74" s="11"/>
-      <c r="K74" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M74" s="8"/>
-    </row>
-    <row r="75" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F74" s="31"/>
+      <c r="G74" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I74" s="11"/>
+      <c r="J74" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L74" s="8"/>
+    </row>
+    <row r="75" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>13212</v>
       </c>
@@ -3073,24 +2998,23 @@
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J75" s="11"/>
-      <c r="K75" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M75" s="8"/>
-    </row>
-    <row r="76" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F75" s="31"/>
+      <c r="G75" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I75" s="11"/>
+      <c r="J75" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L75" s="8"/>
+    </row>
+    <row r="76" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>13215</v>
       </c>
@@ -3102,24 +3026,23 @@
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="11"/>
-      <c r="K76" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="8"/>
-    </row>
-    <row r="77" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F76" s="31"/>
+      <c r="G76" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="11"/>
+      <c r="J76" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="8"/>
+    </row>
+    <row r="77" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>13220</v>
       </c>
@@ -3131,24 +3054,23 @@
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J77" s="11"/>
-      <c r="K77" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M77" s="8"/>
-    </row>
-    <row r="78" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F77" s="31"/>
+      <c r="G77" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I77" s="11"/>
+      <c r="J77" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L77" s="8"/>
+    </row>
+    <row r="78" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>13268</v>
       </c>
@@ -3161,19 +3083,18 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="46" t="s">
+      <c r="G78" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="15"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K78" s="15"/>
       <c r="L78" s="15"/>
-      <c r="M78" s="15"/>
-    </row>
-    <row r="79" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>13293</v>
       </c>
@@ -3186,19 +3107,18 @@
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="46" t="s">
+      <c r="G79" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I79" s="15"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K79" s="15"/>
       <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-    </row>
-    <row r="80" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>13214</v>
       </c>
@@ -3206,28 +3126,27 @@
         <v>45133</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J80" s="11"/>
-      <c r="K80" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M80" s="8"/>
-    </row>
-    <row r="81" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+      <c r="G80" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I80" s="11"/>
+      <c r="J80" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L80" s="8"/>
+    </row>
+    <row r="81" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>13308</v>
       </c>
@@ -3240,19 +3159,18 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I81" s="15"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G81" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="15"/>
       <c r="L81" s="15"/>
-      <c r="M81" s="15"/>
-    </row>
-    <row r="82" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>13274</v>
       </c>
@@ -3265,19 +3183,18 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="15"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G82" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K82" s="15"/>
       <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-    </row>
-    <row r="83" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>13324</v>
       </c>
@@ -3290,19 +3207,18 @@
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I83" s="15"/>
-      <c r="J83" s="42"/>
-      <c r="K83" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G83" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="15"/>
       <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-    </row>
-    <row r="84" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>13221</v>
       </c>
@@ -3316,20 +3232,19 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J84" s="11"/>
-      <c r="K84" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M84" s="8"/>
-    </row>
-    <row r="85" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H84" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L84" s="8"/>
+    </row>
+    <row r="85" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>13223</v>
       </c>
@@ -3342,23 +3257,22 @@
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J85" s="11"/>
-      <c r="K85" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M85" s="8"/>
-    </row>
-    <row r="86" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="G85" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I85" s="11"/>
+      <c r="J85" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L85" s="8"/>
+    </row>
+    <row r="86" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>13231</v>
       </c>
@@ -3371,23 +3285,22 @@
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="27" t="s">
+      <c r="G86" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J86" s="11"/>
-      <c r="K86" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M86" s="8"/>
-    </row>
-    <row r="87" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H86" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I86" s="11"/>
+      <c r="J86" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L86" s="8"/>
+    </row>
+    <row r="87" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>13039</v>
       </c>
@@ -3395,30 +3308,27 @@
         <v>45134</v>
       </c>
       <c r="C87" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>39</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="27" t="s">
+      <c r="G87" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I87" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J87" s="11"/>
-      <c r="K87" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M87" s="8"/>
-    </row>
-    <row r="88" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="H87" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I87" s="11"/>
+      <c r="J87" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L87" s="8"/>
+    </row>
+    <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>13253</v>
       </c>
@@ -3431,19 +3341,18 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I88" s="15"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G88" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" s="15"/>
       <c r="L88" s="15"/>
-      <c r="M88" s="15"/>
-    </row>
-    <row r="89" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>13360</v>
       </c>
@@ -3456,19 +3365,18 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="46" t="s">
+      <c r="G89" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I89" s="15"/>
-      <c r="J89" s="42"/>
-      <c r="K89" s="50" t="s">
+      <c r="H89" s="15"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="50" t="s">
         <v>10</v>
       </c>
+      <c r="K89" s="15"/>
       <c r="L89" s="15"/>
-      <c r="M89" s="15"/>
-    </row>
-    <row r="90" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>13304</v>
       </c>
@@ -3481,19 +3389,18 @@
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I90" s="15"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G90" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" s="15"/>
       <c r="L90" s="15"/>
-      <c r="M90" s="15"/>
-    </row>
-    <row r="91" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>13225</v>
       </c>
@@ -3506,23 +3413,22 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="27" t="s">
+      <c r="G91" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="11"/>
-      <c r="K91" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="8"/>
-    </row>
-    <row r="92" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="H91" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="11"/>
+      <c r="J91" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="8"/>
+    </row>
+    <row r="92" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>13228</v>
       </c>
@@ -3535,23 +3441,22 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I92" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J92" s="11"/>
-      <c r="K92" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M92" s="8"/>
-    </row>
-    <row r="93" spans="1:13" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="G92" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I92" s="11"/>
+      <c r="J92" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K92" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>13243</v>
       </c>
@@ -3564,23 +3469,22 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I93" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J93" s="11"/>
-      <c r="K93" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="M93" s="8"/>
-    </row>
-    <row r="94" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="G93" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I93" s="11"/>
+      <c r="J93" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K93" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L93" s="8"/>
+    </row>
+    <row r="94" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>13252</v>
       </c>
@@ -3595,15 +3499,14 @@
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
       <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I94" s="42"/>
+      <c r="J94" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="15"/>
       <c r="L94" s="15"/>
-      <c r="M94" s="15"/>
-    </row>
-    <row r="95" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>13255</v>
       </c>
@@ -3616,19 +3519,18 @@
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I95" s="15"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G95" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95" s="15"/>
       <c r="L95" s="15"/>
-      <c r="M95" s="15"/>
-    </row>
-    <row r="96" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>13245</v>
       </c>
@@ -3641,19 +3543,18 @@
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="46" t="s">
+      <c r="G96" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I96" s="15"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K96" s="15"/>
       <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-    </row>
-    <row r="97" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>13241</v>
       </c>
@@ -3666,19 +3567,18 @@
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="46" t="s">
+      <c r="G97" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I97" s="15"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K97" s="15"/>
       <c r="L97" s="15"/>
-      <c r="M97" s="15"/>
-    </row>
-    <row r="98" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>13334</v>
       </c>
@@ -3691,19 +3591,18 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="46" t="s">
+      <c r="G98" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I98" s="15"/>
-      <c r="J98" s="42"/>
-      <c r="K98" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K98" s="15"/>
       <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-    </row>
-    <row r="99" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>13338</v>
       </c>
@@ -3716,19 +3615,18 @@
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I99" s="15"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G99" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99" s="15"/>
       <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-    </row>
-    <row r="100" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>13339</v>
       </c>
@@ -3743,15 +3641,14 @@
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="42"/>
-      <c r="K100" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I100" s="42"/>
+      <c r="J100" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="15"/>
       <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-    </row>
-    <row r="101" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>13340</v>
       </c>
@@ -3766,15 +3663,14 @@
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
       <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I101" s="42"/>
+      <c r="J101" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="15"/>
       <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-    </row>
-    <row r="102" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>13348</v>
       </c>
@@ -3789,15 +3685,14 @@
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
       <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I102" s="42"/>
+      <c r="J102" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="15"/>
       <c r="L102" s="15"/>
-      <c r="M102" s="15"/>
-    </row>
-    <row r="103" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>13367</v>
       </c>
@@ -3810,19 +3705,18 @@
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I103" s="15"/>
-      <c r="J103" s="42"/>
-      <c r="K103" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G103" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="42"/>
+      <c r="J103" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K103" s="15"/>
       <c r="L103" s="15"/>
-      <c r="M103" s="15"/>
-    </row>
-    <row r="104" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>13357</v>
       </c>
@@ -3834,22 +3728,21 @@
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15" t="s">
+      <c r="F104" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H104" s="46" t="s">
+      <c r="G104" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I104" s="15"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="50" t="s">
+      <c r="H104" s="15"/>
+      <c r="I104" s="42"/>
+      <c r="J104" s="50" t="s">
         <v>10</v>
       </c>
+      <c r="K104" s="15"/>
       <c r="L104" s="15"/>
-      <c r="M104" s="15"/>
-    </row>
-    <row r="105" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>13247</v>
       </c>
@@ -3862,19 +3755,18 @@
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
       <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I105" s="15"/>
-      <c r="J105" s="42"/>
-      <c r="K105" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G105" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K105" s="15"/>
       <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-    </row>
-    <row r="106" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>13296</v>
       </c>
@@ -3887,19 +3779,18 @@
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
       <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I106" s="15"/>
-      <c r="J106" s="42"/>
-      <c r="K106" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G106" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" s="15"/>
       <c r="L106" s="15"/>
-      <c r="M106" s="15"/>
-    </row>
-    <row r="107" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>13299</v>
       </c>
@@ -3912,19 +3803,18 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I107" s="15"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G107" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K107" s="15"/>
       <c r="L107" s="15"/>
-      <c r="M107" s="15"/>
-    </row>
-    <row r="108" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>13302</v>
       </c>
@@ -3937,19 +3827,18 @@
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="46" t="s">
+      <c r="G108" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I108" s="15"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K108" s="15"/>
       <c r="L108" s="15"/>
-      <c r="M108" s="15"/>
-    </row>
-    <row r="109" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>13269</v>
       </c>
@@ -3957,24 +3846,23 @@
         <v>45138</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
       <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I109" s="15"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G109" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="42"/>
+      <c r="J109" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K109" s="15"/>
       <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
-    </row>
-    <row r="110" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>13313</v>
       </c>
@@ -3987,19 +3875,18 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I110" s="15"/>
-      <c r="J110" s="42"/>
-      <c r="K110" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G110" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="42"/>
+      <c r="J110" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K110" s="15"/>
       <c r="L110" s="15"/>
-      <c r="M110" s="15"/>
-    </row>
-    <row r="111" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
         <v>13343</v>
       </c>
@@ -4012,19 +3899,18 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="46" t="s">
+      <c r="G111" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I111" s="15"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="42"/>
+      <c r="J111" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K111" s="15"/>
       <c r="L111" s="15"/>
-      <c r="M111" s="15"/>
-    </row>
-    <row r="112" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
         <v>13349</v>
       </c>
@@ -4037,19 +3923,18 @@
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I112" s="15"/>
-      <c r="J112" s="42"/>
-      <c r="K112" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G112" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K112" s="15"/>
       <c r="L112" s="15"/>
-      <c r="M112" s="15"/>
-    </row>
-    <row r="113" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
         <v>13362</v>
       </c>
@@ -4062,19 +3947,18 @@
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="46" t="s">
+      <c r="G113" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I113" s="15"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K113" s="15"/>
       <c r="L113" s="15"/>
-      <c r="M113" s="15"/>
-    </row>
-    <row r="114" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
         <v>13310</v>
       </c>
@@ -4087,19 +3971,18 @@
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I114" s="15"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G114" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="42"/>
+      <c r="J114" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K114" s="15"/>
       <c r="L114" s="15"/>
-      <c r="M114" s="15"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
         <v>13400</v>
       </c>
@@ -4114,13 +3997,12 @@
       <c r="F115" s="15"/>
       <c r="G115" s="15"/>
       <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="42"/>
-      <c r="K115" s="8"/>
+      <c r="I115" s="42"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="15"/>
       <c r="L115" s="15"/>
-      <c r="M115" s="15"/>
-    </row>
-    <row r="116" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
         <v>13265</v>
       </c>
@@ -4128,26 +4010,23 @@
         <v>45139</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>40</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D116" s="15"/>
       <c r="E116" s="15"/>
       <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="46" t="s">
+      <c r="G116" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I116" s="15"/>
-      <c r="J116" s="42"/>
-      <c r="K116" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K116" s="15"/>
       <c r="L116" s="15"/>
-      <c r="M116" s="15"/>
-    </row>
-    <row r="117" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
         <v>13272</v>
       </c>
@@ -4160,19 +4039,18 @@
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
       <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="46" t="s">
+      <c r="G117" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I117" s="15"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K117" s="15"/>
       <c r="L117" s="15"/>
-      <c r="M117" s="15"/>
-    </row>
-    <row r="118" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
         <v>13273</v>
       </c>
@@ -4185,19 +4063,18 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="46" t="s">
+      <c r="G118" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I118" s="15"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K118" s="15"/>
       <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-    </row>
-    <row r="119" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
         <v>13275</v>
       </c>
@@ -4210,19 +4087,18 @@
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I119" s="15"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G119" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H119" s="15"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K119" s="15"/>
       <c r="L119" s="15"/>
-      <c r="M119" s="15"/>
-    </row>
-    <row r="120" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>13276</v>
       </c>
@@ -4235,19 +4111,18 @@
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="46" t="s">
+      <c r="G120" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I120" s="15"/>
-      <c r="J120" s="42"/>
-      <c r="K120" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="42"/>
+      <c r="J120" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K120" s="15"/>
       <c r="L120" s="15"/>
-      <c r="M120" s="15"/>
-    </row>
-    <row r="121" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
         <v>13279</v>
       </c>
@@ -4260,19 +4135,18 @@
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="46" t="s">
+      <c r="G121" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I121" s="15"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="42"/>
+      <c r="J121" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K121" s="15"/>
       <c r="L121" s="15"/>
-      <c r="M121" s="15"/>
-    </row>
-    <row r="122" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
         <v>13291</v>
       </c>
@@ -4285,19 +4159,18 @@
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I122" s="15"/>
-      <c r="J122" s="42"/>
-      <c r="K122" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G122" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="42"/>
+      <c r="J122" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K122" s="15"/>
       <c r="L122" s="15"/>
-      <c r="M122" s="15"/>
-    </row>
-    <row r="123" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
         <v>13271</v>
       </c>
@@ -4305,24 +4178,23 @@
         <v>45139</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="46" t="s">
+      <c r="G123" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I123" s="15"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="42"/>
+      <c r="J123" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K123" s="15"/>
       <c r="L123" s="15"/>
-      <c r="M123" s="15"/>
-    </row>
-    <row r="124" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
         <v>13322</v>
       </c>
@@ -4335,19 +4207,18 @@
       <c r="D124" s="15"/>
       <c r="E124" s="15"/>
       <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I124" s="15"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G124" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="42"/>
+      <c r="J124" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K124" s="15"/>
       <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-    </row>
-    <row r="125" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
         <v>13364</v>
       </c>
@@ -4360,19 +4231,18 @@
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I125" s="15"/>
-      <c r="J125" s="42"/>
-      <c r="K125" s="50" t="s">
+      <c r="G125" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="42"/>
+      <c r="J125" s="50" t="s">
         <v>10</v>
       </c>
+      <c r="K125" s="15"/>
       <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-    </row>
-    <row r="126" spans="1:13" ht="27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
         <v>13378</v>
       </c>
@@ -4385,19 +4255,18 @@
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I126" s="15"/>
-      <c r="J126" s="42"/>
-      <c r="K126" s="21" t="s">
-        <v>4</v>
-      </c>
+      <c r="G126" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K126" s="15"/>
       <c r="L126" s="15"/>
-      <c r="M126" s="15"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
         <v>13395</v>
       </c>
@@ -4412,13 +4281,12 @@
       <c r="F127" s="15"/>
       <c r="G127" s="15"/>
       <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="42"/>
-      <c r="K127" s="8"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="15"/>
       <c r="L127" s="15"/>
-      <c r="M127" s="15"/>
-    </row>
-    <row r="128" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
         <v>13289</v>
       </c>
@@ -4431,19 +4299,18 @@
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="46" t="s">
+      <c r="G128" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I128" s="15"/>
-      <c r="J128" s="42"/>
-      <c r="K128" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K128" s="15"/>
       <c r="L128" s="15"/>
-      <c r="M128" s="15"/>
-    </row>
-    <row r="129" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
         <v>13292</v>
       </c>
@@ -4456,19 +4323,18 @@
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I129" s="15"/>
-      <c r="J129" s="42"/>
-      <c r="K129" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G129" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K129" s="15"/>
       <c r="L129" s="15"/>
-      <c r="M129" s="15"/>
-    </row>
-    <row r="130" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A130" s="13">
         <v>13347</v>
       </c>
@@ -4483,15 +4349,14 @@
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="42"/>
-      <c r="K130" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I130" s="42"/>
+      <c r="J130" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K130" s="15"/>
       <c r="L130" s="15"/>
-      <c r="M130" s="15"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
         <v>13385</v>
       </c>
@@ -4506,13 +4371,12 @@
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="42"/>
-      <c r="K131" s="8"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="15"/>
       <c r="L131" s="15"/>
-      <c r="M131" s="15"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="13">
         <v>13398</v>
       </c>
@@ -4527,13 +4391,12 @@
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
       <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="42"/>
-      <c r="K132" s="8"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="15"/>
       <c r="L132" s="15"/>
-      <c r="M132" s="15"/>
-    </row>
-    <row r="133" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
         <v>13311</v>
       </c>
@@ -4546,19 +4409,18 @@
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="46" t="s">
+      <c r="G133" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I133" s="15"/>
-      <c r="J133" s="42"/>
-      <c r="K133" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H133" s="15"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K133" s="15"/>
       <c r="L133" s="15"/>
-      <c r="M133" s="15"/>
-    </row>
-    <row r="134" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
         <v>13314</v>
       </c>
@@ -4571,19 +4433,18 @@
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I134" s="15"/>
-      <c r="J134" s="42"/>
-      <c r="K134" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G134" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K134" s="15"/>
       <c r="L134" s="15"/>
-      <c r="M134" s="15"/>
-    </row>
-    <row r="135" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
         <v>13315</v>
       </c>
@@ -4598,15 +4459,14 @@
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="42"/>
-      <c r="K135" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I135" s="42"/>
+      <c r="J135" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K135" s="15"/>
       <c r="L135" s="15"/>
-      <c r="M135" s="15"/>
-    </row>
-    <row r="136" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
         <v>13316</v>
       </c>
@@ -4619,19 +4479,18 @@
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
       <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="46" t="s">
+      <c r="G136" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I136" s="15"/>
-      <c r="J136" s="42"/>
-      <c r="K136" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H136" s="15"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K136" s="15"/>
       <c r="L136" s="15"/>
-      <c r="M136" s="15"/>
-    </row>
-    <row r="137" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
         <v>13318</v>
       </c>
@@ -4644,19 +4503,18 @@
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
       <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
-      <c r="H137" s="46" t="s">
+      <c r="G137" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I137" s="15"/>
-      <c r="J137" s="42"/>
-      <c r="K137" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K137" s="15"/>
       <c r="L137" s="15"/>
-      <c r="M137" s="15"/>
-    </row>
-    <row r="138" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A138" s="13">
         <v>13320</v>
       </c>
@@ -4666,22 +4524,21 @@
       <c r="C138" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D138" s="15"/>
+      <c r="D138" s="51"/>
       <c r="E138" s="51"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I138" s="15"/>
-      <c r="J138" s="42"/>
-      <c r="K138" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F138" s="15"/>
+      <c r="G138" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" s="15"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K138" s="15"/>
       <c r="L138" s="15"/>
-      <c r="M138" s="15"/>
-    </row>
-    <row r="139" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
         <v>13358</v>
       </c>
@@ -4691,20 +4548,19 @@
       <c r="C139" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D139" s="15"/>
+      <c r="D139" s="51"/>
       <c r="E139" s="51"/>
-      <c r="F139" s="51"/>
+      <c r="F139" s="15"/>
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="42"/>
-      <c r="K139" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I139" s="42"/>
+      <c r="J139" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K139" s="15"/>
       <c r="L139" s="15"/>
-      <c r="M139" s="15"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
         <v>13381</v>
       </c>
@@ -4714,18 +4570,17 @@
       <c r="C140" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D140" s="15"/>
+      <c r="D140" s="51"/>
       <c r="E140" s="51"/>
-      <c r="F140" s="51"/>
+      <c r="F140" s="15"/>
       <c r="G140" s="15"/>
       <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="42"/>
-      <c r="K140" s="8"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="15"/>
       <c r="L140" s="15"/>
-      <c r="M140" s="15"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
         <v>13397</v>
       </c>
@@ -4735,18 +4590,17 @@
       <c r="C141" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D141" s="15"/>
+      <c r="D141" s="51"/>
       <c r="E141" s="51"/>
-      <c r="F141" s="51"/>
+      <c r="F141" s="15"/>
       <c r="G141" s="15"/>
       <c r="H141" s="15"/>
-      <c r="I141" s="15"/>
-      <c r="J141" s="42"/>
-      <c r="K141" s="8"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="15"/>
       <c r="L141" s="15"/>
-      <c r="M141" s="15"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
         <v>13401</v>
       </c>
@@ -4756,18 +4610,17 @@
       <c r="C142" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D142" s="15"/>
+      <c r="D142" s="51"/>
       <c r="E142" s="51"/>
-      <c r="F142" s="51"/>
+      <c r="F142" s="15"/>
       <c r="G142" s="15"/>
       <c r="H142" s="15"/>
-      <c r="I142" s="15"/>
-      <c r="J142" s="42"/>
-      <c r="K142" s="8"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="15"/>
       <c r="L142" s="15"/>
-      <c r="M142" s="15"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
         <v>13403</v>
       </c>
@@ -4777,18 +4630,17 @@
       <c r="C143" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D143" s="15"/>
+      <c r="D143" s="51"/>
       <c r="E143" s="51"/>
-      <c r="F143" s="51"/>
+      <c r="F143" s="15"/>
       <c r="G143" s="15"/>
       <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="42"/>
-      <c r="K143" s="8"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="15"/>
       <c r="L143" s="15"/>
-      <c r="M143" s="15"/>
-    </row>
-    <row r="144" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
         <v>13323</v>
       </c>
@@ -4798,22 +4650,21 @@
       <c r="C144" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D144" s="15"/>
+      <c r="D144" s="51"/>
       <c r="E144" s="51"/>
-      <c r="F144" s="51"/>
-      <c r="G144" s="15"/>
-      <c r="H144" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I144" s="15"/>
-      <c r="J144" s="42"/>
-      <c r="K144" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F144" s="15"/>
+      <c r="G144" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K144" s="15"/>
       <c r="L144" s="15"/>
-      <c r="M144" s="15"/>
-    </row>
-    <row r="145" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
         <v>13336</v>
       </c>
@@ -4823,22 +4674,21 @@
       <c r="C145" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D145" s="15"/>
+      <c r="D145" s="51"/>
       <c r="E145" s="51"/>
-      <c r="F145" s="51"/>
-      <c r="G145" s="15"/>
-      <c r="H145" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I145" s="15"/>
-      <c r="J145" s="42"/>
-      <c r="K145" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F145" s="15"/>
+      <c r="G145" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" s="15"/>
+      <c r="I145" s="42"/>
+      <c r="J145" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K145" s="15"/>
       <c r="L145" s="15"/>
-      <c r="M145" s="15"/>
-    </row>
-    <row r="146" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
         <v>13342</v>
       </c>
@@ -4848,22 +4698,21 @@
       <c r="C146" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D146" s="15"/>
+      <c r="D146" s="51"/>
       <c r="E146" s="51"/>
-      <c r="F146" s="51"/>
-      <c r="G146" s="15"/>
-      <c r="H146" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I146" s="15"/>
-      <c r="J146" s="42"/>
-      <c r="K146" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F146" s="15"/>
+      <c r="G146" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="42"/>
+      <c r="J146" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K146" s="15"/>
       <c r="L146" s="15"/>
-      <c r="M146" s="15"/>
-    </row>
-    <row r="147" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
         <v>13346</v>
       </c>
@@ -4873,20 +4722,19 @@
       <c r="C147" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D147" s="15"/>
+      <c r="D147" s="51"/>
       <c r="E147" s="51"/>
-      <c r="F147" s="51"/>
+      <c r="F147" s="15"/>
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="42"/>
-      <c r="K147" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I147" s="42"/>
+      <c r="J147" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K147" s="15"/>
       <c r="L147" s="15"/>
-      <c r="M147" s="15"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="13">
         <v>13393</v>
       </c>
@@ -4896,18 +4744,17 @@
       <c r="C148" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D148" s="15"/>
+      <c r="D148" s="51"/>
       <c r="E148" s="51"/>
-      <c r="F148" s="51"/>
+      <c r="F148" s="15"/>
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
-      <c r="I148" s="15"/>
-      <c r="J148" s="42"/>
-      <c r="K148" s="8"/>
+      <c r="I148" s="42"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="15"/>
       <c r="L148" s="15"/>
-      <c r="M148" s="15"/>
-    </row>
-    <row r="149" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
         <v>13350</v>
       </c>
@@ -4917,20 +4764,19 @@
       <c r="C149" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D149" s="15"/>
+      <c r="D149" s="51"/>
       <c r="E149" s="51"/>
-      <c r="F149" s="51"/>
+      <c r="F149" s="15"/>
       <c r="G149" s="15"/>
       <c r="H149" s="15"/>
-      <c r="I149" s="15"/>
-      <c r="J149" s="42"/>
-      <c r="K149" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I149" s="42"/>
+      <c r="J149" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K149" s="15"/>
       <c r="L149" s="15"/>
-      <c r="M149" s="15"/>
-    </row>
-    <row r="150" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
         <v>13359</v>
       </c>
@@ -4940,20 +4786,19 @@
       <c r="C150" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D150" s="15"/>
+      <c r="D150" s="51"/>
       <c r="E150" s="51"/>
-      <c r="F150" s="51"/>
+      <c r="F150" s="15"/>
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
-      <c r="I150" s="15"/>
-      <c r="J150" s="42"/>
-      <c r="K150" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="I150" s="42"/>
+      <c r="J150" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K150" s="15"/>
       <c r="L150" s="15"/>
-      <c r="M150" s="15"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="13">
         <v>13392</v>
       </c>
@@ -4963,18 +4808,17 @@
       <c r="C151" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D151" s="15"/>
+      <c r="D151" s="51"/>
       <c r="E151" s="51"/>
-      <c r="F151" s="51"/>
+      <c r="F151" s="15"/>
       <c r="G151" s="15"/>
       <c r="H151" s="15"/>
-      <c r="I151" s="15"/>
-      <c r="J151" s="42"/>
-      <c r="K151" s="8"/>
+      <c r="I151" s="42"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="15"/>
       <c r="L151" s="15"/>
-      <c r="M151" s="15"/>
-    </row>
-    <row r="152" spans="1:13" ht="21.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A152" s="13">
         <v>13399</v>
       </c>
@@ -4982,20 +4826,19 @@
         <v>45145</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D152" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="D152" s="51"/>
       <c r="E152" s="51"/>
-      <c r="F152" s="51"/>
+      <c r="F152" s="15"/>
       <c r="G152" s="15"/>
       <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="42"/>
-      <c r="K152" s="8"/>
+      <c r="I152" s="42"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="15"/>
       <c r="L152" s="15"/>
-      <c r="M152" s="15"/>
-    </row>
-    <row r="153" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
         <v>13373</v>
       </c>
@@ -5005,22 +4848,21 @@
       <c r="C153" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D153" s="15"/>
+      <c r="D153" s="51"/>
       <c r="E153" s="51"/>
-      <c r="F153" s="51"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I153" s="15"/>
-      <c r="J153" s="42"/>
-      <c r="K153" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F153" s="15"/>
+      <c r="G153" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153" s="15"/>
+      <c r="I153" s="42"/>
+      <c r="J153" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K153" s="15"/>
       <c r="L153" s="15"/>
-      <c r="M153" s="15"/>
-    </row>
-    <row r="154" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
         <v>13374</v>
       </c>
@@ -5030,22 +4872,21 @@
       <c r="C154" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D154" s="15"/>
+      <c r="D154" s="51"/>
       <c r="E154" s="51"/>
-      <c r="F154" s="51"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I154" s="15"/>
-      <c r="J154" s="42"/>
-      <c r="K154" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F154" s="15"/>
+      <c r="G154" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" s="15"/>
+      <c r="I154" s="42"/>
+      <c r="J154" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K154" s="15"/>
       <c r="L154" s="15"/>
-      <c r="M154" s="15"/>
-    </row>
-    <row r="155" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
         <v>13375</v>
       </c>
@@ -5055,22 +4896,21 @@
       <c r="C155" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D155" s="15"/>
+      <c r="D155" s="51"/>
       <c r="E155" s="51"/>
-      <c r="F155" s="51"/>
-      <c r="G155" s="15"/>
-      <c r="H155" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I155" s="15"/>
-      <c r="J155" s="42"/>
-      <c r="K155" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F155" s="15"/>
+      <c r="G155" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" s="15"/>
+      <c r="I155" s="42"/>
+      <c r="J155" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K155" s="15"/>
       <c r="L155" s="15"/>
-      <c r="M155" s="15"/>
-    </row>
-    <row r="156" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
         <v>13377</v>
       </c>
@@ -5080,22 +4920,21 @@
       <c r="C156" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D156" s="15"/>
+      <c r="D156" s="51"/>
       <c r="E156" s="51"/>
-      <c r="F156" s="51"/>
-      <c r="G156" s="15"/>
-      <c r="H156" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I156" s="15"/>
-      <c r="J156" s="42"/>
-      <c r="K156" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F156" s="15"/>
+      <c r="G156" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" s="15"/>
+      <c r="I156" s="42"/>
+      <c r="J156" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K156" s="15"/>
       <c r="L156" s="15"/>
-      <c r="M156" s="15"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
         <v>13396</v>
       </c>
@@ -5105,18 +4944,17 @@
       <c r="C157" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D157" s="15"/>
+      <c r="D157" s="51"/>
       <c r="E157" s="51"/>
-      <c r="F157" s="51"/>
+      <c r="F157" s="15"/>
       <c r="G157" s="15"/>
       <c r="H157" s="15"/>
-      <c r="I157" s="15"/>
-      <c r="J157" s="42"/>
-      <c r="K157" s="8"/>
+      <c r="I157" s="42"/>
+      <c r="J157" s="8"/>
+      <c r="K157" s="15"/>
       <c r="L157" s="15"/>
-      <c r="M157" s="15"/>
-    </row>
-    <row r="158" spans="1:13" ht="53.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
         <v>13370</v>
       </c>
@@ -5126,24 +4964,23 @@
       <c r="C158" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D158" s="15"/>
+      <c r="D158" s="51"/>
       <c r="E158" s="51"/>
-      <c r="F158" s="51"/>
-      <c r="G158" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H158" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I158" s="15"/>
-      <c r="J158" s="42"/>
-      <c r="K158" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="F158" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G158" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" s="15"/>
+      <c r="I158" s="42"/>
+      <c r="J158" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K158" s="15"/>
       <c r="L158" s="15"/>
-      <c r="M158" s="15"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
         <v>13384</v>
       </c>
@@ -5153,18 +4990,17 @@
       <c r="C159" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D159" s="15"/>
+      <c r="D159" s="51"/>
       <c r="E159" s="51"/>
-      <c r="F159" s="51"/>
+      <c r="F159" s="15"/>
       <c r="G159" s="15"/>
       <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
-      <c r="J159" s="42"/>
-      <c r="K159" s="8"/>
+      <c r="I159" s="42"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="15"/>
       <c r="L159" s="15"/>
-      <c r="M159" s="15"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="13">
         <v>13389</v>
       </c>
@@ -5174,18 +5010,17 @@
       <c r="C160" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D160" s="15"/>
+      <c r="D160" s="51"/>
       <c r="E160" s="51"/>
-      <c r="F160" s="51"/>
+      <c r="F160" s="15"/>
       <c r="G160" s="15"/>
       <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
-      <c r="J160" s="42"/>
-      <c r="K160" s="8"/>
+      <c r="I160" s="42"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="15"/>
       <c r="L160" s="15"/>
-      <c r="M160" s="15"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
         <v>13390</v>
       </c>
@@ -5195,18 +5030,17 @@
       <c r="C161" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D161" s="15"/>
+      <c r="D161" s="51"/>
       <c r="E161" s="51"/>
-      <c r="F161" s="51"/>
+      <c r="F161" s="15"/>
       <c r="G161" s="15"/>
       <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
-      <c r="J161" s="42"/>
-      <c r="K161" s="8"/>
+      <c r="I161" s="42"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="15"/>
       <c r="L161" s="15"/>
-      <c r="M161" s="15"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
         <v>13394</v>
       </c>
@@ -5216,18 +5050,17 @@
       <c r="C162" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D162" s="15"/>
+      <c r="D162" s="51"/>
       <c r="E162" s="51"/>
-      <c r="F162" s="51"/>
+      <c r="F162" s="15"/>
       <c r="G162" s="15"/>
       <c r="H162" s="15"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="42"/>
-      <c r="K162" s="8"/>
+      <c r="I162" s="42"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="15"/>
       <c r="L162" s="15"/>
-      <c r="M162" s="15"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
         <v>13402</v>
       </c>
@@ -5242,13 +5075,12 @@
       <c r="F163" s="15"/>
       <c r="G163" s="15"/>
       <c r="H163" s="15"/>
-      <c r="I163" s="15"/>
-      <c r="J163" s="42"/>
-      <c r="K163" s="8"/>
+      <c r="I163" s="42"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="15"/>
       <c r="L163" s="15"/>
-      <c r="M163" s="15"/>
-    </row>
-    <row r="164" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
         <v>13383</v>
       </c>
@@ -5256,26 +5088,23 @@
         <v>45149</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D164" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="I164" s="15"/>
-      <c r="J164" s="42"/>
-      <c r="K164" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="G164" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" s="15"/>
+      <c r="I164" s="42"/>
+      <c r="J164" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K164" s="15"/>
       <c r="L164" s="15"/>
-      <c r="M164" s="15"/>
-    </row>
-    <row r="165" spans="1:13" ht="21.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A165" s="13">
         <v>13391</v>
       </c>
@@ -5283,20 +5112,17 @@
         <v>45155</v>
       </c>
       <c r="C165" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="D165" s="15" t="s">
-        <v>39</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D165" s="15"/>
       <c r="E165" s="15"/>
       <c r="F165" s="15"/>
       <c r="G165" s="15"/>
       <c r="H165" s="15"/>
-      <c r="I165" s="15"/>
-      <c r="J165" s="42"/>
-      <c r="K165" s="8"/>
+      <c r="I165" s="42"/>
+      <c r="J165" s="8"/>
+      <c r="K165" s="15"/>
       <c r="L165" s="15"/>
-      <c r="M165" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/arquivos/Book1.xlsx
+++ b/arquivos/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\API-Arte-arena\arquivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E974C98A-EBFC-4797-BC58-2FB7F6A2964E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B35F391-73F7-4410-BD06-94F15BB27A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDF8E6AE-A5F1-443E-95A0-1B69D87855CF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="55">
   <si>
     <t>BANDEIRA</t>
   </si>
@@ -956,10 +956,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35597CEB-3934-4434-82BF-B4E9A055D6A6}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="24" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
-        <v>13253</v>
+        <v>13270</v>
       </c>
       <c r="B24" s="14">
         <v>45139</v>
@@ -1704,7 +1704,7 @@
     </row>
     <row r="25" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
-        <v>13270</v>
+        <v>13277</v>
       </c>
       <c r="B25" s="14">
         <v>45139</v>
@@ -1726,15 +1726,15 @@
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
-        <v>13277</v>
+        <v>13281</v>
       </c>
       <c r="B26" s="14">
         <v>45139</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>0</v>
+      <c r="C26" s="43" t="s">
+        <v>29</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -1750,15 +1750,15 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>13281</v>
+        <v>13285</v>
       </c>
       <c r="B27" s="14">
         <v>45139</v>
       </c>
-      <c r="C27" s="43" t="s">
-        <v>29</v>
+      <c r="C27" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="28" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
-        <v>13285</v>
+        <v>13287</v>
       </c>
       <c r="B28" s="14">
         <v>45139</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <v>13287</v>
+        <v>13248</v>
       </c>
       <c r="B29" s="14">
         <v>45139</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="30" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
-        <v>13248</v>
+        <v>13294</v>
       </c>
       <c r="B30" s="14">
         <v>45139</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
-        <v>13294</v>
+        <v>13254</v>
       </c>
       <c r="B31" s="14">
         <v>45139</v>
@@ -1872,10 +1872,10 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
-        <v>13254</v>
+        <v>13200</v>
       </c>
       <c r="B32" s="14">
-        <v>45139</v>
+        <v>45135</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>0</v>
@@ -1896,10 +1896,10 @@
     </row>
     <row r="33" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
-        <v>13200</v>
+        <v>13257</v>
       </c>
       <c r="B33" s="14">
-        <v>45135</v>
+        <v>45139</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>0</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="34" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
-        <v>13257</v>
+        <v>13306</v>
       </c>
       <c r="B34" s="14">
         <v>45139</v>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="22" t="s">
         <v>6</v>
       </c>
@@ -1942,9 +1942,9 @@
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
-        <v>13306</v>
+        <v>13331</v>
       </c>
       <c r="B35" s="14">
         <v>45139</v>
@@ -1954,9 +1954,9 @@
       </c>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="22" t="s">
-        <v>6</v>
+      <c r="F35" s="44"/>
+      <c r="G35" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="42"/>
@@ -1966,9 +1966,9 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
     </row>
-    <row r="36" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
-        <v>13331</v>
+        <v>13366</v>
       </c>
       <c r="B36" s="14">
         <v>45139</v>
@@ -1978,9 +1978,9 @@
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="18" t="s">
-        <v>1</v>
+      <c r="F36" s="34"/>
+      <c r="G36" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="H36" s="15"/>
       <c r="I36" s="42"/>
@@ -1992,17 +1992,17 @@
     </row>
     <row r="37" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
-        <v>13366</v>
+        <v>13312</v>
       </c>
       <c r="B37" s="14">
-        <v>45139</v>
+        <v>45135</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="34"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="22" t="s">
         <v>6</v>
       </c>
@@ -2016,17 +2016,17 @@
     </row>
     <row r="38" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
-        <v>13312</v>
+        <v>13284</v>
       </c>
       <c r="B38" s="14">
-        <v>45135</v>
+        <v>45140</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="17"/>
       <c r="G38" s="22" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="39" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
-        <v>13284</v>
+        <v>13303</v>
       </c>
       <c r="B39" s="14">
         <v>45140</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="40" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
-        <v>13303</v>
+        <v>13305</v>
       </c>
       <c r="B40" s="14">
         <v>45140</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="41" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
-        <v>13305</v>
+        <v>13319</v>
       </c>
       <c r="B41" s="14">
         <v>45140</v>
@@ -2112,17 +2112,17 @@
     </row>
     <row r="42" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
-        <v>13319</v>
+        <v>13333</v>
       </c>
       <c r="B42" s="14">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="22" t="s">
         <v>6</v>
       </c>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="43" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
-        <v>13333</v>
+        <v>13351</v>
       </c>
       <c r="B43" s="14">
         <v>45141</v>
@@ -2160,13 +2160,13 @@
     </row>
     <row r="44" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
-        <v>13351</v>
+        <v>13327</v>
       </c>
       <c r="B44" s="14">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -2184,13 +2184,13 @@
     </row>
     <row r="45" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
-        <v>13327</v>
+        <v>13344</v>
       </c>
       <c r="B45" s="14">
         <v>45142</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
@@ -2208,17 +2208,17 @@
     </row>
     <row r="46" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
-        <v>13344</v>
+        <v>13317</v>
       </c>
       <c r="B46" s="14">
-        <v>45142</v>
+        <v>45148</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="22" t="s">
         <v>6</v>
       </c>
@@ -2230,45 +2230,49 @@
       <c r="K46" s="15"/>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>13317</v>
-      </c>
-      <c r="B47" s="14">
-        <v>45148</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="22" t="s">
+    <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>13222</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="42"/>
+      <c r="H47" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="11"/>
       <c r="J47" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
+      <c r="K47" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>13222</v>
+        <v>13158</v>
       </c>
       <c r="B48" s="2">
-        <v>45134</v>
+        <v>45131</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="9" t="s">
-        <v>6</v>
+      <c r="F48" s="31"/>
+      <c r="G48" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>5</v>
@@ -2284,7 +2288,7 @@
     </row>
     <row r="49" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>13158</v>
+        <v>13159</v>
       </c>
       <c r="B49" s="2">
         <v>45131</v>
@@ -2295,8 +2299,8 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="31"/>
-      <c r="G49" s="45" t="s">
-        <v>31</v>
+      <c r="G49" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>5</v>
@@ -2312,7 +2316,7 @@
     </row>
     <row r="50" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>13159</v>
+        <v>13161</v>
       </c>
       <c r="B50" s="2">
         <v>45131</v>
@@ -2340,7 +2344,7 @@
     </row>
     <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>13161</v>
+        <v>13163</v>
       </c>
       <c r="B51" s="2">
         <v>45131</v>
@@ -2351,8 +2355,8 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="31"/>
-      <c r="G51" s="27" t="s">
-        <v>13</v>
+      <c r="G51" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>5</v>
@@ -2366,9 +2370,9 @@
       </c>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>13163</v>
+        <v>13166</v>
       </c>
       <c r="B52" s="2">
         <v>45131</v>
@@ -2378,9 +2382,11 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="45" t="s">
-        <v>31</v>
+      <c r="F52" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>5</v>
@@ -2394,9 +2400,9 @@
       </c>
       <c r="L52" s="8"/>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>13166</v>
+        <v>13169</v>
       </c>
       <c r="B53" s="2">
         <v>45131</v>
@@ -2406,11 +2412,9 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>13</v>
+      <c r="F53" s="31"/>
+      <c r="G53" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>5</v>
@@ -2426,7 +2430,7 @@
     </row>
     <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>13169</v>
+        <v>13183</v>
       </c>
       <c r="B54" s="2">
         <v>45131</v>
@@ -2437,8 +2441,8 @@
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="31"/>
-      <c r="G54" s="45" t="s">
-        <v>31</v>
+      <c r="G54" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="H54" s="11" t="s">
         <v>5</v>
@@ -2454,7 +2458,7 @@
     </row>
     <row r="55" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>13183</v>
+        <v>13193</v>
       </c>
       <c r="B55" s="2">
         <v>45131</v>
@@ -2465,8 +2469,8 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="31"/>
-      <c r="G55" s="27" t="s">
-        <v>13</v>
+      <c r="G55" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="H55" s="11" t="s">
         <v>5</v>
@@ -2482,7 +2486,7 @@
     </row>
     <row r="56" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>13193</v>
+        <v>13195</v>
       </c>
       <c r="B56" s="2">
         <v>45131</v>
@@ -2508,37 +2512,37 @@
       </c>
       <c r="L56" s="8"/>
     </row>
-    <row r="57" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>13195</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="57" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>13251</v>
+      </c>
+      <c r="B57" s="14">
         <v>45131</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="11"/>
+      <c r="C57" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="42"/>
       <c r="J57" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L57" s="8"/>
-    </row>
-    <row r="58" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K57" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="15"/>
+    </row>
+    <row r="58" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
-        <v>13251</v>
+        <v>13175</v>
       </c>
       <c r="B58" s="14">
         <v>45131</v>
@@ -2549,60 +2553,60 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>5</v>
-      </c>
+      <c r="G58" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H58" s="15"/>
       <c r="I58" s="42"/>
       <c r="J58" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="15" t="s">
-        <v>5</v>
-      </c>
+      <c r="K58" s="15"/>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>13175</v>
-      </c>
-      <c r="B59" s="14">
+    <row r="59" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>13168</v>
+      </c>
+      <c r="B59" s="2">
         <v>45131</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="47" t="s">
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="42"/>
+      <c r="H59" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="11"/>
       <c r="J59" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
+      <c r="K59" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="8"/>
     </row>
     <row r="60" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>13168</v>
+        <v>13022</v>
       </c>
       <c r="B60" s="2">
         <v>45131</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>32</v>
+      <c r="C60" s="26" t="s">
+        <v>15</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="31"/>
-      <c r="G60" s="45" t="s">
-        <v>31</v>
+      <c r="G60" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>5</v>
@@ -2614,52 +2618,46 @@
       <c r="K60" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="L60" s="8"/>
-    </row>
-    <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>13022</v>
-      </c>
-      <c r="B61" s="2">
+      <c r="L60" s="29">
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>13016</v>
+      </c>
+      <c r="B61" s="14">
         <v>45131</v>
       </c>
-      <c r="C61" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I61" s="11"/>
-      <c r="J61" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L61" s="29">
-        <v>45142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
+      <c r="C61" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+    </row>
+    <row r="62" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <v>13016</v>
+        <v>13387</v>
       </c>
       <c r="B62" s="14">
         <v>45131</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="17" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="G62" s="15"/>
       <c r="H62" s="15"/>
@@ -2668,31 +2666,37 @@
       <c r="K62" s="15"/>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="1:12" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="13">
-        <v>13387</v>
-      </c>
-      <c r="B63" s="14">
-        <v>45131</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
+    <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>13209</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45132</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I63" s="11"/>
+      <c r="J63" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L63" s="8"/>
     </row>
     <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>13209</v>
+        <v>13201</v>
       </c>
       <c r="B64" s="2">
         <v>45132</v>
@@ -2703,8 +2707,8 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="31"/>
-      <c r="G64" s="27" t="s">
-        <v>13</v>
+      <c r="G64" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>5</v>
@@ -2720,7 +2724,7 @@
     </row>
     <row r="65" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>13201</v>
+        <v>13204</v>
       </c>
       <c r="B65" s="2">
         <v>45132</v>
@@ -2748,7 +2752,7 @@
     </row>
     <row r="66" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>13204</v>
+        <v>13207</v>
       </c>
       <c r="B66" s="2">
         <v>45132</v>
@@ -2759,8 +2763,8 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="31"/>
-      <c r="G66" s="45" t="s">
-        <v>31</v>
+      <c r="G66" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>5</v>
@@ -2776,7 +2780,7 @@
     </row>
     <row r="67" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>13207</v>
+        <v>13213</v>
       </c>
       <c r="B67" s="2">
         <v>45132</v>
@@ -2787,8 +2791,8 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="31"/>
-      <c r="G67" s="27" t="s">
-        <v>13</v>
+      <c r="G67" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="H67" s="11" t="s">
         <v>5</v>
@@ -2802,37 +2806,33 @@
       </c>
       <c r="L67" s="8"/>
     </row>
-    <row r="68" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>13213</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="68" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>13280</v>
+      </c>
+      <c r="B68" s="14">
         <v>45132</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="45" t="s">
+      <c r="C68" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I68" s="11"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="42"/>
       <c r="J68" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K68" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L68" s="8"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
     </row>
     <row r="69" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
-        <v>13280</v>
+        <v>13295</v>
       </c>
       <c r="B69" s="14">
         <v>45132</v>
@@ -2842,9 +2842,9 @@
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="47" t="s">
-        <v>31</v>
+      <c r="F69" s="17"/>
+      <c r="G69" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="42"/>
@@ -2854,91 +2854,95 @@
       <c r="K69" s="15"/>
       <c r="L69" s="15"/>
     </row>
-    <row r="70" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="13">
-        <v>13295</v>
-      </c>
-      <c r="B70" s="14">
+    <row r="70" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>13187</v>
+      </c>
+      <c r="B70" s="2">
         <v>45132</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="42"/>
+      <c r="C70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I70" s="11"/>
       <c r="J70" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-    </row>
-    <row r="71" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>13187</v>
-      </c>
-      <c r="B71" s="2">
+      <c r="K70" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L70" s="8"/>
+    </row>
+    <row r="71" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>13261</v>
+      </c>
+      <c r="B71" s="14">
         <v>45132</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="45" t="s">
+      <c r="C71" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I71" s="11"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="42"/>
       <c r="J71" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K71" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L71" s="8"/>
-    </row>
-    <row r="72" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
-        <v>13261</v>
-      </c>
-      <c r="B72" s="14">
-        <v>45132</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="47" t="s">
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+    </row>
+    <row r="72" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>13210</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45133</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="42"/>
+      <c r="H72" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="11"/>
       <c r="J72" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
+      <c r="K72" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="8"/>
     </row>
     <row r="73" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>13210</v>
+        <v>13189</v>
       </c>
       <c r="B73" s="2">
         <v>45133</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -2960,7 +2964,7 @@
     </row>
     <row r="74" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>13189</v>
+        <v>13212</v>
       </c>
       <c r="B74" s="2">
         <v>45133</v>
@@ -2988,7 +2992,7 @@
     </row>
     <row r="75" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>13212</v>
+        <v>13215</v>
       </c>
       <c r="B75" s="2">
         <v>45133</v>
@@ -3016,7 +3020,7 @@
     </row>
     <row r="76" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>13215</v>
+        <v>13220</v>
       </c>
       <c r="B76" s="2">
         <v>45133</v>
@@ -3042,37 +3046,33 @@
       </c>
       <c r="L76" s="8"/>
     </row>
-    <row r="77" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>13220</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="13">
+        <v>13268</v>
+      </c>
+      <c r="B77" s="14">
         <v>45133</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I77" s="11"/>
+      <c r="C77" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="42"/>
       <c r="J77" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K77" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L77" s="8"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
     </row>
     <row r="78" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
-        <v>13268</v>
+        <v>13293</v>
       </c>
       <c r="B78" s="14">
         <v>45133</v>
@@ -3094,61 +3094,61 @@
       <c r="K78" s="15"/>
       <c r="L78" s="15"/>
     </row>
-    <row r="79" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
-        <v>13293</v>
-      </c>
-      <c r="B79" s="14">
+    <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>13214</v>
+      </c>
+      <c r="B79" s="2">
         <v>45133</v>
       </c>
-      <c r="C79" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="42"/>
+      <c r="C79" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I79" s="11"/>
       <c r="J79" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-    </row>
-    <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>13214</v>
-      </c>
-      <c r="B80" s="2">
+      <c r="K79" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L79" s="8"/>
+    </row>
+    <row r="80" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="13">
+        <v>13308</v>
+      </c>
+      <c r="B80" s="14">
         <v>45133</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I80" s="11"/>
+      <c r="C80" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="42"/>
       <c r="J80" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K80" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+    </row>
+    <row r="81" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
-        <v>13308</v>
+        <v>13274</v>
       </c>
       <c r="B81" s="14">
         <v>45133</v>
@@ -3159,8 +3159,8 @@
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
-      <c r="G81" s="48" t="s">
-        <v>36</v>
+      <c r="G81" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="42"/>
@@ -3172,7 +3172,7 @@
     </row>
     <row r="82" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
-        <v>13274</v>
+        <v>13324</v>
       </c>
       <c r="B82" s="14">
         <v>45133</v>
@@ -3194,33 +3194,35 @@
       <c r="K82" s="15"/>
       <c r="L82" s="15"/>
     </row>
-    <row r="83" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
-        <v>13324</v>
-      </c>
-      <c r="B83" s="14">
-        <v>45133</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="42"/>
+    <row r="83" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>13221</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45134</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="11"/>
       <c r="J83" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
+      <c r="K83" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="8"/>
     </row>
     <row r="84" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>13221</v>
+        <v>13223</v>
       </c>
       <c r="B84" s="2">
         <v>45134</v>
@@ -3231,7 +3233,9 @@
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
+      <c r="G84" s="45" t="s">
+        <v>31</v>
+      </c>
       <c r="H84" s="11" t="s">
         <v>5</v>
       </c>
@@ -3246,7 +3250,7 @@
     </row>
     <row r="85" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>13223</v>
+        <v>13231</v>
       </c>
       <c r="B85" s="2">
         <v>45134</v>
@@ -3257,8 +3261,8 @@
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-      <c r="G85" s="45" t="s">
-        <v>31</v>
+      <c r="G85" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>5</v>
@@ -3272,15 +3276,15 @@
       </c>
       <c r="L85" s="8"/>
     </row>
-    <row r="86" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>13231</v>
+        <v>13039</v>
       </c>
       <c r="B86" s="2">
         <v>45134</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>0</v>
+      <c r="C86" s="49" t="s">
+        <v>50</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -3300,37 +3304,33 @@
       </c>
       <c r="L86" s="8"/>
     </row>
-    <row r="87" spans="1:12" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>13039</v>
-      </c>
-      <c r="B87" s="2">
+    <row r="87" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>13253</v>
+      </c>
+      <c r="B87" s="14">
         <v>45134</v>
       </c>
-      <c r="C87" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I87" s="11"/>
+      <c r="C87" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="42"/>
       <c r="J87" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K87" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L87" s="8"/>
-    </row>
-    <row r="88" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+    </row>
+    <row r="88" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
-        <v>13253</v>
+        <v>13360</v>
       </c>
       <c r="B88" s="14">
         <v>45134</v>
@@ -3341,20 +3341,20 @@
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
-      <c r="G88" s="47" t="s">
-        <v>31</v>
+      <c r="G88" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H88" s="15"/>
       <c r="I88" s="42"/>
-      <c r="J88" s="12" t="s">
-        <v>4</v>
+      <c r="J88" s="50" t="s">
+        <v>10</v>
       </c>
       <c r="K88" s="15"/>
       <c r="L88" s="15"/>
     </row>
-    <row r="89" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
-        <v>13360</v>
+        <v>13304</v>
       </c>
       <c r="B89" s="14">
         <v>45134</v>
@@ -3365,44 +3365,48 @@
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
-      <c r="G89" s="46" t="s">
-        <v>13</v>
+      <c r="G89" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H89" s="15"/>
       <c r="I89" s="42"/>
-      <c r="J89" s="50" t="s">
-        <v>10</v>
+      <c r="J89" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="K89" s="15"/>
       <c r="L89" s="15"/>
     </row>
-    <row r="90" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
-        <v>13304</v>
-      </c>
-      <c r="B90" s="14">
-        <v>45134</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="42"/>
+    <row r="90" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>13225</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45135</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I90" s="11"/>
       <c r="J90" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
+      <c r="K90" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L90" s="8"/>
     </row>
     <row r="91" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>13225</v>
+        <v>13228</v>
       </c>
       <c r="B91" s="2">
         <v>45135</v>
@@ -3413,8 +3417,8 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="27" t="s">
-        <v>13</v>
+      <c r="G91" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="H91" s="11" t="s">
         <v>5</v>
@@ -3430,7 +3434,7 @@
     </row>
     <row r="92" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>13228</v>
+        <v>13243</v>
       </c>
       <c r="B92" s="2">
         <v>45135</v>
@@ -3456,37 +3460,31 @@
       </c>
       <c r="L92" s="8"/>
     </row>
-    <row r="93" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>13243</v>
-      </c>
-      <c r="B93" s="2">
+    <row r="93" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="13">
+        <v>13252</v>
+      </c>
+      <c r="B93" s="14">
         <v>45135</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I93" s="11"/>
+      <c r="C93" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="42"/>
       <c r="J93" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K93" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L93" s="8"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
     </row>
     <row r="94" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
-        <v>13252</v>
+        <v>13255</v>
       </c>
       <c r="B94" s="14">
         <v>45135</v>
@@ -3497,7 +3495,9 @@
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
+      <c r="G94" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="H94" s="15"/>
       <c r="I94" s="42"/>
       <c r="J94" s="12" t="s">
@@ -3508,7 +3508,7 @@
     </row>
     <row r="95" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
-        <v>13255</v>
+        <v>13245</v>
       </c>
       <c r="B95" s="14">
         <v>45135</v>
@@ -3519,8 +3519,8 @@
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
-      <c r="G95" s="47" t="s">
-        <v>31</v>
+      <c r="G95" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="42"/>
@@ -3532,13 +3532,13 @@
     </row>
     <row r="96" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
-        <v>13245</v>
+        <v>13241</v>
       </c>
       <c r="B96" s="14">
         <v>45135</v>
       </c>
-      <c r="C96" s="13" t="s">
-        <v>0</v>
+      <c r="C96" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
@@ -3556,13 +3556,13 @@
     </row>
     <row r="97" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
-        <v>13241</v>
+        <v>13334</v>
       </c>
       <c r="B97" s="14">
         <v>45135</v>
       </c>
-      <c r="C97" s="33" t="s">
-        <v>15</v>
+      <c r="C97" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="98" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
-        <v>13334</v>
+        <v>13338</v>
       </c>
       <c r="B98" s="14">
         <v>45135</v>
@@ -3591,8 +3591,8 @@
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
-      <c r="G98" s="46" t="s">
-        <v>13</v>
+      <c r="G98" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H98" s="15"/>
       <c r="I98" s="42"/>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="99" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
-        <v>13338</v>
+        <v>13339</v>
       </c>
       <c r="B99" s="14">
         <v>45135</v>
@@ -3615,9 +3615,7 @@
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
-      <c r="G99" s="47" t="s">
-        <v>31</v>
-      </c>
+      <c r="G99" s="15"/>
       <c r="H99" s="15"/>
       <c r="I99" s="42"/>
       <c r="J99" s="12" t="s">
@@ -3628,7 +3626,7 @@
     </row>
     <row r="100" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
-        <v>13339</v>
+        <v>13340</v>
       </c>
       <c r="B100" s="14">
         <v>45135</v>
@@ -3650,7 +3648,7 @@
     </row>
     <row r="101" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
-        <v>13340</v>
+        <v>13348</v>
       </c>
       <c r="B101" s="14">
         <v>45135</v>
@@ -3670,9 +3668,9 @@
       <c r="K101" s="15"/>
       <c r="L101" s="15"/>
     </row>
-    <row r="102" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
-        <v>13348</v>
+        <v>13367</v>
       </c>
       <c r="B102" s="14">
         <v>45135</v>
@@ -3683,7 +3681,9 @@
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
+      <c r="G102" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="H102" s="15"/>
       <c r="I102" s="42"/>
       <c r="J102" s="12" t="s">
@@ -3694,57 +3694,57 @@
     </row>
     <row r="103" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
-        <v>13367</v>
+        <v>13357</v>
       </c>
       <c r="B103" s="14">
-        <v>45135</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>0</v>
+        <v>45136</v>
+      </c>
+      <c r="C103" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="48" t="s">
-        <v>36</v>
+      <c r="F103" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H103" s="15"/>
       <c r="I103" s="42"/>
-      <c r="J103" s="12" t="s">
-        <v>4</v>
+      <c r="J103" s="50" t="s">
+        <v>10</v>
       </c>
       <c r="K103" s="15"/>
       <c r="L103" s="15"/>
     </row>
-    <row r="104" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
-        <v>13357</v>
+        <v>13247</v>
       </c>
       <c r="B104" s="14">
-        <v>45136</v>
-      </c>
-      <c r="C104" s="33" t="s">
-        <v>15</v>
+        <v>45138</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
-      <c r="F104" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G104" s="46" t="s">
-        <v>13</v>
+      <c r="F104" s="15"/>
+      <c r="G104" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H104" s="15"/>
       <c r="I104" s="42"/>
-      <c r="J104" s="50" t="s">
-        <v>10</v>
+      <c r="J104" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="K104" s="15"/>
       <c r="L104" s="15"/>
     </row>
     <row r="105" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
-        <v>13247</v>
+        <v>13296</v>
       </c>
       <c r="B105" s="14">
         <v>45138</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="106" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
-        <v>13296</v>
+        <v>13299</v>
       </c>
       <c r="B106" s="14">
         <v>45138</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="107" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
-        <v>13299</v>
+        <v>13302</v>
       </c>
       <c r="B107" s="14">
         <v>45138</v>
@@ -3803,8 +3803,8 @@
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
       <c r="F107" s="15"/>
-      <c r="G107" s="47" t="s">
-        <v>31</v>
+      <c r="G107" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H107" s="15"/>
       <c r="I107" s="42"/>
@@ -3816,19 +3816,19 @@
     </row>
     <row r="108" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
-        <v>13302</v>
+        <v>13269</v>
       </c>
       <c r="B108" s="14">
         <v>45138</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
       <c r="F108" s="15"/>
-      <c r="G108" s="46" t="s">
-        <v>13</v>
+      <c r="G108" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H108" s="15"/>
       <c r="I108" s="42"/>
@@ -3840,13 +3840,13 @@
     </row>
     <row r="109" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
-        <v>13269</v>
+        <v>13313</v>
       </c>
       <c r="B109" s="14">
         <v>45138</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="110" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
-        <v>13313</v>
+        <v>13343</v>
       </c>
       <c r="B110" s="14">
         <v>45138</v>
@@ -3875,8 +3875,8 @@
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
       <c r="F110" s="15"/>
-      <c r="G110" s="47" t="s">
-        <v>31</v>
+      <c r="G110" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H110" s="15"/>
       <c r="I110" s="42"/>
@@ -3886,9 +3886,9 @@
       <c r="K110" s="15"/>
       <c r="L110" s="15"/>
     </row>
-    <row r="111" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A111" s="13">
-        <v>13343</v>
+        <v>13349</v>
       </c>
       <c r="B111" s="14">
         <v>45138</v>
@@ -3899,8 +3899,8 @@
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
       <c r="F111" s="15"/>
-      <c r="G111" s="46" t="s">
-        <v>13</v>
+      <c r="G111" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="H111" s="15"/>
       <c r="I111" s="42"/>
@@ -3910,9 +3910,9 @@
       <c r="K111" s="15"/>
       <c r="L111" s="15"/>
     </row>
-    <row r="112" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A112" s="13">
-        <v>13349</v>
+        <v>13362</v>
       </c>
       <c r="B112" s="14">
         <v>45138</v>
@@ -3923,8 +3923,8 @@
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
       <c r="F112" s="15"/>
-      <c r="G112" s="48" t="s">
-        <v>36</v>
+      <c r="G112" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H112" s="15"/>
       <c r="I112" s="42"/>
@@ -3936,7 +3936,7 @@
     </row>
     <row r="113" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A113" s="13">
-        <v>13362</v>
+        <v>13310</v>
       </c>
       <c r="B113" s="14">
         <v>45138</v>
@@ -3947,8 +3947,8 @@
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
       <c r="F113" s="15"/>
-      <c r="G113" s="46" t="s">
-        <v>13</v>
+      <c r="G113" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H113" s="15"/>
       <c r="I113" s="42"/>
@@ -3958,9 +3958,9 @@
       <c r="K113" s="15"/>
       <c r="L113" s="15"/>
     </row>
-    <row r="114" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="13">
-        <v>13310</v>
+        <v>13400</v>
       </c>
       <c r="B114" s="14">
         <v>45138</v>
@@ -3971,46 +3971,46 @@
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
       <c r="F114" s="15"/>
-      <c r="G114" s="47" t="s">
-        <v>31</v>
-      </c>
+      <c r="G114" s="15"/>
       <c r="H114" s="15"/>
       <c r="I114" s="42"/>
-      <c r="J114" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J114" s="8"/>
       <c r="K114" s="15"/>
       <c r="L114" s="15"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A115" s="13">
-        <v>13400</v>
+        <v>13265</v>
       </c>
       <c r="B115" s="14">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
       <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
+      <c r="G115" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" s="15"/>
       <c r="I115" s="42"/>
-      <c r="J115" s="8"/>
+      <c r="J115" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K115" s="15"/>
       <c r="L115" s="15"/>
     </row>
-    <row r="116" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A116" s="13">
-        <v>13265</v>
+        <v>13272</v>
       </c>
       <c r="B116" s="14">
         <v>45139</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="117" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
-        <v>13272</v>
+        <v>13273</v>
       </c>
       <c r="B117" s="14">
         <v>45139</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="118" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A118" s="13">
-        <v>13273</v>
+        <v>13275</v>
       </c>
       <c r="B118" s="14">
         <v>45139</v>
@@ -4063,8 +4063,8 @@
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
       <c r="F118" s="15"/>
-      <c r="G118" s="46" t="s">
-        <v>13</v>
+      <c r="G118" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H118" s="15"/>
       <c r="I118" s="42"/>
@@ -4076,19 +4076,19 @@
     </row>
     <row r="119" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A119" s="13">
-        <v>13275</v>
+        <v>13276</v>
       </c>
       <c r="B119" s="14">
         <v>45139</v>
       </c>
-      <c r="C119" s="13" t="s">
-        <v>0</v>
+      <c r="C119" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="D119" s="15"/>
       <c r="E119" s="15"/>
       <c r="F119" s="15"/>
-      <c r="G119" s="47" t="s">
-        <v>31</v>
+      <c r="G119" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H119" s="15"/>
       <c r="I119" s="42"/>
@@ -4100,13 +4100,13 @@
     </row>
     <row r="120" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
-        <v>13276</v>
+        <v>13279</v>
       </c>
       <c r="B120" s="14">
         <v>45139</v>
       </c>
-      <c r="C120" s="33" t="s">
-        <v>15</v>
+      <c r="C120" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
@@ -4122,9 +4122,9 @@
       <c r="K120" s="15"/>
       <c r="L120" s="15"/>
     </row>
-    <row r="121" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="13">
-        <v>13279</v>
+        <v>13291</v>
       </c>
       <c r="B121" s="14">
         <v>45139</v>
@@ -4135,8 +4135,8 @@
       <c r="D121" s="15"/>
       <c r="E121" s="15"/>
       <c r="F121" s="15"/>
-      <c r="G121" s="46" t="s">
-        <v>13</v>
+      <c r="G121" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="H121" s="15"/>
       <c r="I121" s="42"/>
@@ -4146,21 +4146,21 @@
       <c r="K121" s="15"/>
       <c r="L121" s="15"/>
     </row>
-    <row r="122" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A122" s="13">
-        <v>13291</v>
+        <v>13271</v>
       </c>
       <c r="B122" s="14">
         <v>45139</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D122" s="15"/>
       <c r="E122" s="15"/>
       <c r="F122" s="15"/>
-      <c r="G122" s="48" t="s">
-        <v>36</v>
+      <c r="G122" s="46" t="s">
+        <v>13</v>
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="42"/>
@@ -4172,19 +4172,19 @@
     </row>
     <row r="123" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A123" s="13">
-        <v>13271</v>
+        <v>13322</v>
       </c>
       <c r="B123" s="14">
         <v>45139</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15"/>
-      <c r="G123" s="46" t="s">
-        <v>13</v>
+      <c r="G123" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H123" s="15"/>
       <c r="I123" s="42"/>
@@ -4194,9 +4194,9 @@
       <c r="K123" s="15"/>
       <c r="L123" s="15"/>
     </row>
-    <row r="124" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="13">
-        <v>13322</v>
+        <v>13364</v>
       </c>
       <c r="B124" s="14">
         <v>45139</v>
@@ -4212,15 +4212,15 @@
       </c>
       <c r="H124" s="15"/>
       <c r="I124" s="42"/>
-      <c r="J124" s="12" t="s">
-        <v>4</v>
+      <c r="J124" s="50" t="s">
+        <v>10</v>
       </c>
       <c r="K124" s="15"/>
       <c r="L124" s="15"/>
     </row>
     <row r="125" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="13">
-        <v>13364</v>
+        <v>13378</v>
       </c>
       <c r="B125" s="14">
         <v>45139</v>
@@ -4231,20 +4231,20 @@
       <c r="D125" s="15"/>
       <c r="E125" s="15"/>
       <c r="F125" s="15"/>
-      <c r="G125" s="47" t="s">
-        <v>31</v>
+      <c r="G125" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="H125" s="15"/>
       <c r="I125" s="42"/>
-      <c r="J125" s="50" t="s">
-        <v>10</v>
+      <c r="J125" s="21" t="s">
+        <v>4</v>
       </c>
       <c r="K125" s="15"/>
       <c r="L125" s="15"/>
     </row>
-    <row r="126" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
-        <v>13378</v>
+        <v>13395</v>
       </c>
       <c r="B126" s="14">
         <v>45139</v>
@@ -4255,23 +4255,19 @@
       <c r="D126" s="15"/>
       <c r="E126" s="15"/>
       <c r="F126" s="15"/>
-      <c r="G126" s="48" t="s">
-        <v>36</v>
-      </c>
+      <c r="G126" s="15"/>
       <c r="H126" s="15"/>
       <c r="I126" s="42"/>
-      <c r="J126" s="21" t="s">
-        <v>4</v>
-      </c>
+      <c r="J126" s="8"/>
       <c r="K126" s="15"/>
       <c r="L126" s="15"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A127" s="13">
-        <v>13395</v>
+        <v>13289</v>
       </c>
       <c r="B127" s="14">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="C127" s="13" t="s">
         <v>0</v>
@@ -4279,16 +4275,20 @@
       <c r="D127" s="15"/>
       <c r="E127" s="15"/>
       <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
+      <c r="G127" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="H127" s="15"/>
       <c r="I127" s="42"/>
-      <c r="J127" s="8"/>
+      <c r="J127" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K127" s="15"/>
       <c r="L127" s="15"/>
     </row>
     <row r="128" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
-        <v>13289</v>
+        <v>13292</v>
       </c>
       <c r="B128" s="14">
         <v>45140</v>
@@ -4299,8 +4299,8 @@
       <c r="D128" s="15"/>
       <c r="E128" s="15"/>
       <c r="F128" s="15"/>
-      <c r="G128" s="46" t="s">
-        <v>13</v>
+      <c r="G128" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H128" s="15"/>
       <c r="I128" s="42"/>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="129" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
-        <v>13292</v>
+        <v>13347</v>
       </c>
       <c r="B129" s="14">
         <v>45140</v>
@@ -4323,9 +4323,7 @@
       <c r="D129" s="15"/>
       <c r="E129" s="15"/>
       <c r="F129" s="15"/>
-      <c r="G129" s="47" t="s">
-        <v>31</v>
-      </c>
+      <c r="G129" s="15"/>
       <c r="H129" s="15"/>
       <c r="I129" s="42"/>
       <c r="J129" s="12" t="s">
@@ -4334,9 +4332,9 @@
       <c r="K129" s="15"/>
       <c r="L129" s="15"/>
     </row>
-    <row r="130" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="13">
-        <v>13347</v>
+        <v>13385</v>
       </c>
       <c r="B130" s="14">
         <v>45140</v>
@@ -4350,15 +4348,13 @@
       <c r="G130" s="15"/>
       <c r="H130" s="15"/>
       <c r="I130" s="42"/>
-      <c r="J130" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J130" s="8"/>
       <c r="K130" s="15"/>
       <c r="L130" s="15"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="13">
-        <v>13385</v>
+        <v>13398</v>
       </c>
       <c r="B131" s="14">
         <v>45140</v>
@@ -4376,12 +4372,12 @@
       <c r="K131" s="15"/>
       <c r="L131" s="15"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A132" s="13">
-        <v>13398</v>
+        <v>13311</v>
       </c>
       <c r="B132" s="14">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C132" s="13" t="s">
         <v>0</v>
@@ -4389,16 +4385,20 @@
       <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
+      <c r="G132" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" s="15"/>
       <c r="I132" s="42"/>
-      <c r="J132" s="8"/>
+      <c r="J132" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K132" s="15"/>
       <c r="L132" s="15"/>
     </row>
     <row r="133" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A133" s="13">
-        <v>13311</v>
+        <v>13314</v>
       </c>
       <c r="B133" s="14">
         <v>45141</v>
@@ -4409,8 +4409,8 @@
       <c r="D133" s="15"/>
       <c r="E133" s="15"/>
       <c r="F133" s="15"/>
-      <c r="G133" s="46" t="s">
-        <v>13</v>
+      <c r="G133" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H133" s="15"/>
       <c r="I133" s="42"/>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="134" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A134" s="13">
-        <v>13314</v>
+        <v>13315</v>
       </c>
       <c r="B134" s="14">
         <v>45141</v>
@@ -4433,9 +4433,7 @@
       <c r="D134" s="15"/>
       <c r="E134" s="15"/>
       <c r="F134" s="15"/>
-      <c r="G134" s="47" t="s">
-        <v>31</v>
-      </c>
+      <c r="G134" s="15"/>
       <c r="H134" s="15"/>
       <c r="I134" s="42"/>
       <c r="J134" s="12" t="s">
@@ -4446,7 +4444,7 @@
     </row>
     <row r="135" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A135" s="13">
-        <v>13315</v>
+        <v>13316</v>
       </c>
       <c r="B135" s="14">
         <v>45141</v>
@@ -4457,7 +4455,9 @@
       <c r="D135" s="15"/>
       <c r="E135" s="15"/>
       <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
+      <c r="G135" s="46" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" s="15"/>
       <c r="I135" s="42"/>
       <c r="J135" s="12" t="s">
@@ -4468,13 +4468,13 @@
     </row>
     <row r="136" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
-        <v>13316</v>
+        <v>13318</v>
       </c>
       <c r="B136" s="14">
         <v>45141</v>
       </c>
-      <c r="C136" s="13" t="s">
-        <v>0</v>
+      <c r="C136" s="33" t="s">
+        <v>12</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="15"/>
@@ -4492,19 +4492,19 @@
     </row>
     <row r="137" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A137" s="13">
-        <v>13318</v>
+        <v>13320</v>
       </c>
       <c r="B137" s="14">
         <v>45141</v>
       </c>
-      <c r="C137" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
+      <c r="C137" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
       <c r="F137" s="15"/>
-      <c r="G137" s="46" t="s">
-        <v>13</v>
+      <c r="G137" s="47" t="s">
+        <v>31</v>
       </c>
       <c r="H137" s="15"/>
       <c r="I137" s="42"/>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="138" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A138" s="13">
-        <v>13320</v>
+        <v>13358</v>
       </c>
       <c r="B138" s="14">
         <v>45141</v>
@@ -4527,9 +4527,7 @@
       <c r="D138" s="51"/>
       <c r="E138" s="51"/>
       <c r="F138" s="15"/>
-      <c r="G138" s="47" t="s">
-        <v>31</v>
-      </c>
+      <c r="G138" s="15"/>
       <c r="H138" s="15"/>
       <c r="I138" s="42"/>
       <c r="J138" s="12" t="s">
@@ -4538,9 +4536,9 @@
       <c r="K138" s="15"/>
       <c r="L138" s="15"/>
     </row>
-    <row r="139" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="13">
-        <v>13358</v>
+        <v>13381</v>
       </c>
       <c r="B139" s="14">
         <v>45141</v>
@@ -4554,15 +4552,13 @@
       <c r="G139" s="15"/>
       <c r="H139" s="15"/>
       <c r="I139" s="42"/>
-      <c r="J139" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J139" s="8"/>
       <c r="K139" s="15"/>
       <c r="L139" s="15"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="13">
-        <v>13381</v>
+        <v>13397</v>
       </c>
       <c r="B140" s="14">
         <v>45141</v>
@@ -4582,7 +4578,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="13">
-        <v>13397</v>
+        <v>13401</v>
       </c>
       <c r="B141" s="14">
         <v>45141</v>
@@ -4602,7 +4598,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="13">
-        <v>13401</v>
+        <v>13403</v>
       </c>
       <c r="B142" s="14">
         <v>45141</v>
@@ -4620,12 +4616,12 @@
       <c r="K142" s="15"/>
       <c r="L142" s="15"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A143" s="13">
-        <v>13403</v>
+        <v>13323</v>
       </c>
       <c r="B143" s="14">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>0</v>
@@ -4633,16 +4629,20 @@
       <c r="D143" s="51"/>
       <c r="E143" s="51"/>
       <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
+      <c r="G143" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="H143" s="15"/>
       <c r="I143" s="42"/>
-      <c r="J143" s="8"/>
+      <c r="J143" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K143" s="15"/>
       <c r="L143" s="15"/>
     </row>
     <row r="144" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
-        <v>13323</v>
+        <v>13336</v>
       </c>
       <c r="B144" s="14">
         <v>45142</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="145" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A145" s="13">
-        <v>13336</v>
+        <v>13342</v>
       </c>
       <c r="B145" s="14">
         <v>45142</v>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="146" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A146" s="13">
-        <v>13342</v>
+        <v>13346</v>
       </c>
       <c r="B146" s="14">
         <v>45142</v>
@@ -4701,9 +4701,7 @@
       <c r="D146" s="51"/>
       <c r="E146" s="51"/>
       <c r="F146" s="15"/>
-      <c r="G146" s="47" t="s">
-        <v>31</v>
-      </c>
+      <c r="G146" s="15"/>
       <c r="H146" s="15"/>
       <c r="I146" s="42"/>
       <c r="J146" s="12" t="s">
@@ -4712,9 +4710,9 @@
       <c r="K146" s="15"/>
       <c r="L146" s="15"/>
     </row>
-    <row r="147" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="13">
-        <v>13346</v>
+        <v>13393</v>
       </c>
       <c r="B147" s="14">
         <v>45142</v>
@@ -4728,18 +4726,16 @@
       <c r="G147" s="15"/>
       <c r="H147" s="15"/>
       <c r="I147" s="42"/>
-      <c r="J147" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J147" s="8"/>
       <c r="K147" s="15"/>
       <c r="L147" s="15"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A148" s="13">
-        <v>13393</v>
+        <v>13350</v>
       </c>
       <c r="B148" s="14">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="C148" s="13" t="s">
         <v>0</v>
@@ -4750,13 +4746,15 @@
       <c r="G148" s="15"/>
       <c r="H148" s="15"/>
       <c r="I148" s="42"/>
-      <c r="J148" s="8"/>
+      <c r="J148" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K148" s="15"/>
       <c r="L148" s="15"/>
     </row>
     <row r="149" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A149" s="13">
-        <v>13350</v>
+        <v>13359</v>
       </c>
       <c r="B149" s="14">
         <v>45145</v>
@@ -4776,9 +4774,9 @@
       <c r="K149" s="15"/>
       <c r="L149" s="15"/>
     </row>
-    <row r="150" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="13">
-        <v>13359</v>
+        <v>13392</v>
       </c>
       <c r="B150" s="14">
         <v>45145</v>
@@ -4792,21 +4790,19 @@
       <c r="G150" s="15"/>
       <c r="H150" s="15"/>
       <c r="I150" s="42"/>
-      <c r="J150" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J150" s="8"/>
       <c r="K150" s="15"/>
       <c r="L150" s="15"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A151" s="13">
-        <v>13392</v>
+        <v>13399</v>
       </c>
       <c r="B151" s="14">
         <v>45145</v>
       </c>
       <c r="C151" s="13" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D151" s="51"/>
       <c r="E151" s="51"/>
@@ -4818,29 +4814,33 @@
       <c r="K151" s="15"/>
       <c r="L151" s="15"/>
     </row>
-    <row r="152" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A152" s="13">
-        <v>13399</v>
+        <v>13373</v>
       </c>
       <c r="B152" s="14">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D152" s="51"/>
       <c r="E152" s="51"/>
       <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
+      <c r="G152" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="H152" s="15"/>
       <c r="I152" s="42"/>
-      <c r="J152" s="8"/>
+      <c r="J152" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K152" s="15"/>
       <c r="L152" s="15"/>
     </row>
     <row r="153" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A153" s="13">
-        <v>13373</v>
+        <v>13374</v>
       </c>
       <c r="B153" s="14">
         <v>45146</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="154" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A154" s="13">
-        <v>13374</v>
+        <v>13375</v>
       </c>
       <c r="B154" s="14">
         <v>45146</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="155" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A155" s="13">
-        <v>13375</v>
+        <v>13377</v>
       </c>
       <c r="B155" s="14">
         <v>45146</v>
@@ -4910,9 +4910,9 @@
       <c r="K155" s="15"/>
       <c r="L155" s="15"/>
     </row>
-    <row r="156" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="13">
-        <v>13377</v>
+        <v>13396</v>
       </c>
       <c r="B156" s="14">
         <v>45146</v>
@@ -4923,66 +4923,62 @@
       <c r="D156" s="51"/>
       <c r="E156" s="51"/>
       <c r="F156" s="15"/>
-      <c r="G156" s="47" t="s">
-        <v>31</v>
-      </c>
+      <c r="G156" s="15"/>
       <c r="H156" s="15"/>
       <c r="I156" s="42"/>
-      <c r="J156" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J156" s="8"/>
       <c r="K156" s="15"/>
       <c r="L156" s="15"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A157" s="13">
-        <v>13396</v>
+        <v>13370</v>
       </c>
       <c r="B157" s="14">
-        <v>45146</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>0</v>
+        <v>45147</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>15</v>
       </c>
       <c r="D157" s="51"/>
       <c r="E157" s="51"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
+      <c r="F157" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G157" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="H157" s="15"/>
       <c r="I157" s="42"/>
-      <c r="J157" s="8"/>
+      <c r="J157" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K157" s="15"/>
       <c r="L157" s="15"/>
     </row>
-    <row r="158" spans="1:12" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="13">
-        <v>13370</v>
+        <v>13384</v>
       </c>
       <c r="B158" s="14">
         <v>45147</v>
       </c>
-      <c r="C158" s="33" t="s">
-        <v>15</v>
+      <c r="C158" s="13" t="s">
+        <v>0</v>
       </c>
       <c r="D158" s="51"/>
       <c r="E158" s="51"/>
-      <c r="F158" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G158" s="47" t="s">
-        <v>31</v>
-      </c>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
       <c r="H158" s="15"/>
       <c r="I158" s="42"/>
-      <c r="J158" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J158" s="8"/>
       <c r="K158" s="15"/>
       <c r="L158" s="15"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="13">
-        <v>13384</v>
+        <v>13389</v>
       </c>
       <c r="B159" s="14">
         <v>45147</v>
@@ -5002,7 +4998,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="13">
-        <v>13389</v>
+        <v>13390</v>
       </c>
       <c r="B160" s="14">
         <v>45147</v>
@@ -5022,10 +5018,10 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="13">
-        <v>13390</v>
+        <v>13394</v>
       </c>
       <c r="B161" s="14">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="C161" s="13" t="s">
         <v>0</v>
@@ -5042,7 +5038,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="13">
-        <v>13394</v>
+        <v>13402</v>
       </c>
       <c r="B162" s="14">
         <v>45148</v>
@@ -5050,8 +5046,8 @@
       <c r="C162" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D162" s="51"/>
-      <c r="E162" s="51"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
       <c r="F162" s="15"/>
       <c r="G162" s="15"/>
       <c r="H162" s="15"/>
@@ -5060,69 +5056,49 @@
       <c r="K162" s="15"/>
       <c r="L162" s="15"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A163" s="13">
-        <v>13402</v>
+        <v>13383</v>
       </c>
       <c r="B163" s="14">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D163" s="15"/>
       <c r="E163" s="15"/>
       <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
+      <c r="G163" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="H163" s="15"/>
       <c r="I163" s="42"/>
-      <c r="J163" s="8"/>
+      <c r="J163" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="K163" s="15"/>
       <c r="L163" s="15"/>
     </row>
-    <row r="164" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A164" s="13">
-        <v>13383</v>
+        <v>13391</v>
       </c>
       <c r="B164" s="14">
-        <v>45149</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>52</v>
+        <v>45155</v>
+      </c>
+      <c r="C164" s="52" t="s">
+        <v>50</v>
       </c>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="15"/>
-      <c r="G164" s="47" t="s">
-        <v>31</v>
-      </c>
+      <c r="G164" s="15"/>
       <c r="H164" s="15"/>
       <c r="I164" s="42"/>
-      <c r="J164" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="J164" s="8"/>
       <c r="K164" s="15"/>
       <c r="L164" s="15"/>
-    </row>
-    <row r="165" spans="1:12" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="13">
-        <v>13391</v>
-      </c>
-      <c r="B165" s="14">
-        <v>45155</v>
-      </c>
-      <c r="C165" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="42"/>
-      <c r="J165" s="8"/>
-      <c r="K165" s="15"/>
-      <c r="L165" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
